--- a/demo.xlsx
+++ b/demo.xlsx
@@ -182,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
